--- a/data/audt365-2018-2-28-day.xlsx
+++ b/data/audt365-2018-2-28-day.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="8220"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1617,11 +1617,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="168620416"/>
-        <c:axId val="168622720"/>
+        <c:axId val="207575680"/>
+        <c:axId val="212653184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168620416"/>
+        <c:axId val="207575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,12 +1646,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168622720"/>
+        <c:crossAx val="212653184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168622720"/>
+        <c:axId val="212653184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1676,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168620416"/>
+        <c:crossAx val="207575680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1689,7 +1689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2017,13 +2017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2132,6 +2134,10 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
+      <c r="H8">
+        <f>E8*E8</f>
+        <v>4.9133460827220413E-7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="A9">
@@ -2399,6 +2405,28 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="H20">
+        <f>H19/2</f>
+        <v>1.9472539103056271E-10</v>
+      </c>
+      <c r="I20">
+        <f>E18-F18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>E18+F18*G18</f>
+        <v>-1.8980691539785769E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="I21">
+        <f>E19-F19*G19</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>E19+F19*G19</f>
+        <v>1.7725719163473155</v>
       </c>
     </row>
     <row r="23" spans="1:12">
